--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H2">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I2">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J2">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>4.523650857480222</v>
+        <v>7.608772279172</v>
       </c>
       <c r="R2">
-        <v>40.712857717322</v>
+        <v>68.47895051254801</v>
       </c>
       <c r="S2">
-        <v>0.002162017206172028</v>
+        <v>0.003201617781015853</v>
       </c>
       <c r="T2">
-        <v>0.002162017206172028</v>
+        <v>0.003201617781015854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H3">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I3">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J3">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>5.85874688432489</v>
+        <v>6.703767139652</v>
       </c>
       <c r="R3">
-        <v>52.72872195892401</v>
+        <v>60.333904256868</v>
       </c>
       <c r="S3">
-        <v>0.002800108136014021</v>
+        <v>0.002820809887141905</v>
       </c>
       <c r="T3">
-        <v>0.002800108136014021</v>
+        <v>0.002820809887141906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H4">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I4">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J4">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>1.665614842834778</v>
+        <v>2.115229235865</v>
       </c>
       <c r="R4">
-        <v>14.990533585513</v>
+        <v>19.037063122785</v>
       </c>
       <c r="S4">
-        <v>0.0007960578883115212</v>
+        <v>0.0008900457634943068</v>
       </c>
       <c r="T4">
-        <v>0.0007960578883115212</v>
+        <v>0.0008900457634943073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H5">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I5">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J5">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>3.674902482245778</v>
+        <v>2.812189238226</v>
       </c>
       <c r="R5">
-        <v>33.074122340212</v>
+        <v>25.309703144034</v>
       </c>
       <c r="S5">
-        <v>0.00175636950063943</v>
+        <v>0.001183312463343373</v>
       </c>
       <c r="T5">
-        <v>0.00175636950063943</v>
+        <v>0.001183312463343373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>43.483467</v>
       </c>
       <c r="I6">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J6">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>452.6478848423887</v>
+        <v>665.3831810166307</v>
       </c>
       <c r="R6">
-        <v>4073.830963581498</v>
+        <v>5988.448629149677</v>
       </c>
       <c r="S6">
-        <v>0.2163368805858151</v>
+        <v>0.2799798108511086</v>
       </c>
       <c r="T6">
-        <v>0.2163368805858151</v>
+        <v>0.2799798108511087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.483467</v>
       </c>
       <c r="I7">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J7">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
-        <v>586.2409519583908</v>
+        <v>586.2409519583907</v>
       </c>
       <c r="R7">
         <v>5276.168567625517</v>
       </c>
       <c r="S7">
-        <v>0.2801858642562694</v>
+        <v>0.2466783584636198</v>
       </c>
       <c r="T7">
-        <v>0.2801858642562694</v>
+        <v>0.2466783584636199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>43.483467</v>
       </c>
       <c r="I8">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J8">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>166.6656113224464</v>
+        <v>184.975697247755</v>
       </c>
       <c r="R8">
-        <v>1499.990501902017</v>
+        <v>1664.781275229795</v>
       </c>
       <c r="S8">
-        <v>0.07965555492870705</v>
+        <v>0.0778340394001993</v>
       </c>
       <c r="T8">
-        <v>0.07965555492870705</v>
+        <v>0.07783403940019933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>43.483467</v>
       </c>
       <c r="I9">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J9">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>367.7199872399454</v>
+        <v>245.924487196662</v>
       </c>
       <c r="R9">
-        <v>3309.479885159508</v>
+        <v>2213.320384769958</v>
       </c>
       <c r="S9">
-        <v>0.175746750691755</v>
+        <v>0.1034800598713305</v>
       </c>
       <c r="T9">
-        <v>0.175746750691755</v>
+        <v>0.1034800598713305</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H10">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I10">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J10">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>141.9663216629576</v>
+        <v>259.0416951509182</v>
       </c>
       <c r="R10">
-        <v>1277.696894966618</v>
+        <v>2331.375256358264</v>
       </c>
       <c r="S10">
-        <v>0.06785086643561968</v>
+        <v>0.1089995161886905</v>
       </c>
       <c r="T10">
-        <v>0.06785086643561966</v>
+        <v>0.1089995161886905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H11">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I11">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J11">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>183.8658134605063</v>
+        <v>228.2306711302249</v>
       </c>
       <c r="R11">
-        <v>1654.792321144556</v>
+        <v>2054.076040172024</v>
       </c>
       <c r="S11">
-        <v>0.08787615685925404</v>
+        <v>0.09603485924581073</v>
       </c>
       <c r="T11">
-        <v>0.08787615685925404</v>
+        <v>0.09603485924581075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H12">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I12">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J12">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>52.27220667427746</v>
+        <v>72.01326926173667</v>
       </c>
       <c r="R12">
-        <v>470.4498600684971</v>
+        <v>648.11942335563</v>
       </c>
       <c r="S12">
-        <v>0.02498278797257118</v>
+        <v>0.03030173001347181</v>
       </c>
       <c r="T12">
-        <v>0.02498278797257117</v>
+        <v>0.03030173001347182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H13">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I13">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J13">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>115.3299413043365</v>
+        <v>95.741368071868</v>
       </c>
       <c r="R13">
-        <v>1037.969471739028</v>
+        <v>861.6723126468119</v>
       </c>
       <c r="S13">
-        <v>0.05512037187274806</v>
+        <v>0.04028603500682411</v>
       </c>
       <c r="T13">
-        <v>0.05512037187274806</v>
+        <v>0.04028603500682412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H14">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I14">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J14">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>2.847519456235999</v>
+        <v>7.809916817956445</v>
       </c>
       <c r="R14">
-        <v>25.62767510612399</v>
+        <v>70.289251361608</v>
       </c>
       <c r="S14">
-        <v>0.001360933072257724</v>
+        <v>0.003286255342543268</v>
       </c>
       <c r="T14">
-        <v>0.001360933072257724</v>
+        <v>0.003286255342543269</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H15">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I15">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J15">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>3.687927355112</v>
+        <v>6.880987077369778</v>
       </c>
       <c r="R15">
-        <v>33.191346196008</v>
+        <v>61.92888369632799</v>
       </c>
       <c r="S15">
-        <v>0.001762594560913127</v>
+        <v>0.0028953804594931</v>
       </c>
       <c r="T15">
-        <v>0.001762594560913127</v>
+        <v>0.0028953804594931</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H16">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I16">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J16">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>1.048460816494</v>
+        <v>2.171147167623334</v>
       </c>
       <c r="R16">
-        <v>9.436147348445999</v>
+        <v>19.54032450861</v>
       </c>
       <c r="S16">
-        <v>0.0005010975419353773</v>
+        <v>0.0009135749003939846</v>
       </c>
       <c r="T16">
-        <v>0.0005010975419353773</v>
+        <v>0.0009135749003939849</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H17">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I17">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J17">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>2.313254636056</v>
+        <v>2.886531916196</v>
       </c>
       <c r="R17">
-        <v>20.819291724504</v>
+        <v>25.978787245764</v>
       </c>
       <c r="S17">
-        <v>0.001105588491017214</v>
+        <v>0.001214594361518802</v>
       </c>
       <c r="T17">
-        <v>0.001105588491017214</v>
+        <v>0.001214594361518802</v>
       </c>
     </row>
   </sheetData>
